--- a/ofc/estimates/भुमेश्वर, सेतीदेबी, गणेश मन्दिर निर्माण/V भुमेश्वर, सेतीदेबी, गणेश मन्दिर निर्माण.xlsx
+++ b/ofc/estimates/भुमेश्वर, सेतीदेबी, गणेश मन्दिर निर्माण/V भुमेश्वर, सेतीदेबी, गणेश मन्दिर निर्माण.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Total Valuated</t>
   </si>
   <si>
-    <t>Quantity=Area of scalene triangle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date:2081/11/09       </t>
   </si>
   <si>
@@ -233,6 +230,28 @@
   </si>
   <si>
     <t>Length of triangle (c)</t>
+  </si>
+  <si>
+    <t>Quantity=sqrt(s(s-a)(s-b)(s-c))</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = (a+b+c)/2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -243,7 +262,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +385,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -609,23 +634,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -637,6 +652,60 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -646,51 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1335,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K12"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,113 +1378,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1496,7 +1521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -1504,10 +1529,18 @@
         <v>44</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="27"/>
+      <c r="D9" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="88" t="s">
+        <v>61</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="13"/>
       <c r="J9" s="27"/>
@@ -1547,8 +1580,8 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="82" t="s">
-        <v>55</v>
+      <c r="K10" s="67" t="s">
+        <v>62</v>
       </c>
       <c r="M10">
         <f>(D10+E10+F10)/2</f>
@@ -1584,7 +1617,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="83"/>
+      <c r="K11" s="68"/>
       <c r="M11">
         <f t="shared" ref="M11:M12" si="1">(D11+E11+F11)/2</f>
         <v>8.2672965559280698</v>
@@ -1615,7 +1648,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="84"/>
+      <c r="K12" s="69"/>
       <c r="M12">
         <f t="shared" si="1"/>
         <v>7.9244132886315146</v>
@@ -1644,7 +1677,7 @@
         <f>G13*I13</f>
         <v>32803.648695163036</v>
       </c>
-      <c r="K13" s="81"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -1928,11 +1961,11 @@
       <c r="B28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="63">
         <f>J26</f>
         <v>39201.448521293125</v>
       </c>
-      <c r="D28" s="65"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="20">
         <v>100</v>
       </c>
@@ -1948,10 +1981,10 @@
       <c r="B29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="66">
         <v>35000</v>
       </c>
-      <c r="D29" s="68"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="20"/>
       <c r="F29" s="35"/>
       <c r="G29" s="36"/>
@@ -1965,11 +1998,11 @@
       <c r="B30" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="68">
+      <c r="C30" s="66">
         <f>C29-C32-C33</f>
         <v>33250</v>
       </c>
-      <c r="D30" s="68"/>
+      <c r="D30" s="66"/>
       <c r="E30" s="20">
         <f>C30/C28*100</f>
         <v>84.818294359555452</v>
@@ -1986,11 +2019,11 @@
       <c r="B31" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="65">
+      <c r="C31" s="63">
         <f>C28-C30</f>
         <v>5951.4485212931249</v>
       </c>
-      <c r="D31" s="65"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="20">
         <f>100-E30</f>
         <v>15.181705640444548</v>
@@ -2007,11 +2040,11 @@
       <c r="B32" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="63">
         <f>C29*0.03</f>
         <v>1050</v>
       </c>
-      <c r="D32" s="65"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="20">
         <v>3</v>
       </c>
@@ -2027,11 +2060,11 @@
       <c r="B33" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="63">
         <f>C29*0.02</f>
         <v>700</v>
       </c>
-      <c r="D33" s="65"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="20">
         <v>2</v>
       </c>
@@ -2044,6 +2077,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="A7:F7"/>
@@ -2053,13 +2093,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="K10:K12"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1"/>
@@ -2076,7 +2109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -2127,34 +2160,34 @@
       <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
@@ -2201,77 +2234,77 @@
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="I7" s="73" t="s">
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="I7" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="str">
+      <c r="A8" s="70" t="str">
         <f>Estimate!A6</f>
         <v xml:space="preserve">Project:- भुमेश्वर, सेतीदेबी, गणेश मन्दिर निर्माण </v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="I8" s="74" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="I8" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="str">
+      <c r="A9" s="84" t="str">
         <f>Estimate!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="I9" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="I9" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="70" t="s">
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="85" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="42" t="s">
         <v>39</v>
       </c>
@@ -2290,8 +2323,8 @@
       <c r="I12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="69"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="85"/>
     </row>
     <row r="13" spans="1:11" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="51">
@@ -2537,6 +2570,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -2544,19 +2590,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2574,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,113 +2625,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
+      <c r="H7" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2735,7 +2768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -2743,14 +2776,22 @@
         <v>44</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="27"/>
+      <c r="D9" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="88" t="s">
+        <v>61</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="13"/>
       <c r="J9" s="27"/>
-      <c r="K9" s="12"/>
+      <c r="K9" s="88"/>
       <c r="M9" s="16"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
@@ -2786,8 +2827,8 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="82" t="s">
-        <v>55</v>
+      <c r="K10" s="67" t="s">
+        <v>62</v>
       </c>
       <c r="M10">
         <f>(D10+E10+F10)/2</f>
@@ -2823,7 +2864,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="83"/>
+      <c r="K11" s="68"/>
       <c r="M11">
         <f t="shared" ref="M11:M12" si="1">(D11+E11+F11)/2</f>
         <v>6.9338616275525755</v>
@@ -2854,7 +2895,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="84"/>
+      <c r="K12" s="69"/>
       <c r="M12">
         <f t="shared" si="1"/>
         <v>8.686376104846083</v>
@@ -3208,11 +3249,11 @@
       <c r="B30" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="63">
         <f>J28</f>
         <v>42244.255593127906</v>
       </c>
-      <c r="D30" s="65"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="20">
         <v>100</v>
       </c>
@@ -3228,10 +3269,10 @@
       <c r="B31" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="68">
+      <c r="C31" s="66">
         <v>35000</v>
       </c>
-      <c r="D31" s="68"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="20"/>
       <c r="F31" s="35"/>
       <c r="G31" s="36"/>
@@ -3245,11 +3286,11 @@
       <c r="B32" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="68">
+      <c r="C32" s="66">
         <f>C31-C34-C35</f>
         <v>33250</v>
       </c>
-      <c r="D32" s="68"/>
+      <c r="D32" s="66"/>
       <c r="E32" s="20">
         <f>C32/C30*100</f>
         <v>78.70892629815674</v>
@@ -3266,11 +3307,11 @@
       <c r="B33" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="63">
         <f>C30-C32</f>
         <v>8994.2555931279057</v>
       </c>
-      <c r="D33" s="65"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="20">
         <f>100-E32</f>
         <v>21.29107370184326</v>
@@ -3287,11 +3328,11 @@
       <c r="B34" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="65">
+      <c r="C34" s="63">
         <f>C31*0.03</f>
         <v>1050</v>
       </c>
-      <c r="D34" s="65"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="20">
         <v>3</v>
       </c>
@@ -3307,11 +3348,11 @@
       <c r="B35" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="63">
         <f>C31*0.02</f>
         <v>700</v>
       </c>
-      <c r="D35" s="65"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="20">
         <v>2</v>
       </c>
@@ -3324,6 +3365,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="K10:K12"/>
@@ -3332,14 +3381,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1"/>
@@ -3356,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3374,110 +3415,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
+      <c r="A5" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="1"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
       <c r="K6" s="58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="2"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -3523,16 +3564,18 @@
         <v>44</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="F9" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="G9" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="27"/>
       <c r="H9" s="14"/>
       <c r="I9" s="13"/>
       <c r="J9" s="27"/>
@@ -3572,8 +3615,8 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="87" t="s">
-        <v>55</v>
+      <c r="K10" s="67" t="s">
+        <v>62</v>
       </c>
       <c r="M10">
         <f>(D10+E10+F10)/2</f>
@@ -3609,7 +3652,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="87"/>
+      <c r="K11" s="68"/>
       <c r="M11">
         <f t="shared" ref="M11:M12" si="1">(D11+E11+F11)/2</f>
         <v>6.9338616275525755</v>
@@ -3640,7 +3683,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="87"/>
+      <c r="K12" s="69"/>
       <c r="M12">
         <f t="shared" si="1"/>
         <v>8.686376104846083</v>
@@ -3994,11 +4037,11 @@
       <c r="B30" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="63">
         <f>J28</f>
         <v>42244.255593127906</v>
       </c>
-      <c r="D30" s="65"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="20">
         <v>100</v>
       </c>
@@ -4014,10 +4057,10 @@
       <c r="B31" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="68">
+      <c r="C31" s="66">
         <v>35000</v>
       </c>
-      <c r="D31" s="68"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="20"/>
       <c r="F31" s="35"/>
       <c r="G31" s="36"/>
@@ -4031,11 +4074,11 @@
       <c r="B32" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="68">
+      <c r="C32" s="66">
         <f>C31-C34-C35</f>
         <v>33250</v>
       </c>
-      <c r="D32" s="68"/>
+      <c r="D32" s="66"/>
       <c r="E32" s="20">
         <f>C32/C30*100</f>
         <v>78.70892629815674</v>
@@ -4052,11 +4095,11 @@
       <c r="B33" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="63">
         <f>C30-C32</f>
         <v>8994.2555931279057</v>
       </c>
-      <c r="D33" s="65"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="20">
         <f>100-E32</f>
         <v>21.29107370184326</v>
@@ -4073,11 +4116,11 @@
       <c r="B34" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="65">
+      <c r="C34" s="63">
         <f>C31*0.03</f>
         <v>1050</v>
       </c>
-      <c r="D34" s="65"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="20">
         <v>3</v>
       </c>
@@ -4093,11 +4136,11 @@
       <c r="B35" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="63">
         <f>C31*0.02</f>
         <v>700</v>
       </c>
-      <c r="D35" s="65"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="20">
         <v>2</v>
       </c>
@@ -4110,6 +4153,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
@@ -4118,12 +4167,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1"/>
